--- a/documentacao/Arquivos auxiliares/Geração de dados fictícios.xlsx
+++ b/documentacao/Arquivos auxiliares/Geração de dados fictícios.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabin\Desktop\pick-up-games-master\documentacao\Arquivos auxiliares\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D61EF-8978-477E-9FC5-28353AC89C42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15315" windowHeight="6210" tabRatio="874"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="874" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PESSOA" sheetId="2" r:id="rId1"/>
@@ -18,12 +24,19 @@
     <sheet name="Vaquinha_individual" sheetId="10" r:id="rId9"/>
     <sheet name="Vaquinha_individual_pessoa" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
   <si>
     <t>Alice</t>
   </si>
@@ -526,9 +539,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -605,7 +618,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,6 +633,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -627,7 +643,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -665,9 +681,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,9 +716,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -735,9 +768,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -910,23 +960,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="84.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="84.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -942,7 +992,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (2, 'alice@gmail.com','Alice');</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -958,7 +1008,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (3, 'sophia@gmail.com','Sophia');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -974,7 +1024,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (4, 'helena@gmail.com','Helena');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -990,7 +1040,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (5, 'valentina@gmail.com','Valentina');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1006,7 +1056,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (6, 'laura@gmail.com','Laura');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1022,7 +1072,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (7, 'isabella@gmail.com','Isabella');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1038,7 +1088,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (8, 'manuela@gmail.com','Manuela');</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (9, 'julia@gmail.com','Julia');</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1070,7 +1120,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (10, 'heloisa@gmail.com','Heloisa');</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1086,7 +1136,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (11, 'luiza@gmail.com','Luiza');</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (12, 'emanuelly@gmail.com','Emanuelly');</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (13, 'lorena@gmail.com','Lorena');</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1134,7 +1184,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (14, 'lívia@gmail.com','Lívia');</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1150,7 +1200,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (15, 'giovanna@gmail.com','Giovanna');</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1166,7 +1216,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (16, 'isadora@gmail.com','Isadora');</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1182,7 +1232,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (17, 'beatriz@gmail.com','Beatriz');</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1198,7 +1248,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (18, 'mariana@gmail.com','Mariana');</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1214,7 +1264,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (19, 'cecília@gmail.com','Cecília');</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1230,7 +1280,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (20, 'eloa@gmail.com','Eloa');</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (21, 'lara@gmail.com','Lara');</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -1262,7 +1312,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (22, 'miguel@gmail.com','Miguel');</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -1278,7 +1328,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (23, 'arthur@gmail.com','Arthur');</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -1294,7 +1344,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (24, 'bernardo@gmail.com','Bernardo');</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -1310,7 +1360,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (25, 'heitor@gmail.com','Heitor');</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -1326,7 +1376,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (26, 'davi@gmail.com','Davi');</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -1342,7 +1392,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (27, 'lorenzo@gmail.com','Lorenzo');</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1358,7 +1408,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (28, 'theo@gmail.com','Theo');</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1374,7 +1424,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (29, 'pedro@gmail.com','Pedro');</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -1390,7 +1440,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (30, 'gabriel@gmail.com','Gabriel');</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -1406,7 +1456,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (31, 'enzo@gmail.com','Enzo');</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -1422,7 +1472,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (32, 'matheus@gmail.com','Matheus');</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (33, 'lucas@gmail.com','Lucas');</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -1454,7 +1504,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (34, 'benjamin@gmail.com','Benjamin');</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -1470,7 +1520,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (35, 'nicolas@gmail.com','Nicolas');</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -1486,7 +1536,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (36, 'guilherme@gmail.com','Guilherme');</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -1502,7 +1552,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (37, 'rafael@gmail.com','Rafael');</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -1518,7 +1568,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (38, 'joaquim@gmail.com','Joaquim');</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -1534,7 +1584,7 @@
         <v>INSERT INTO Pessoa(id_pessoa, email, nome_pessoa) VALUES (39, 'samuel@gmail.com','Samuel');</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -1556,20 +1606,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1580,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1596,7 +1646,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 3, 'Sophia');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1612,7 +1662,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 6, 'Laura');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1628,7 +1678,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 10, 'Heloisa');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1644,7 +1694,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 13, 'Lorena');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1660,7 +1710,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 14, 'Lívia');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 16, 'Isadora');</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1692,7 +1742,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 18, 'Mariana');</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1708,7 +1758,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 21, 'Lara');</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1724,7 +1774,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 22, 'Miguel');</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1740,7 +1790,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 23, 'Arthur');</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1756,7 +1806,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 25, 'Heitor');</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1772,7 +1822,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 26, 'Davi');</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1788,7 +1838,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 27, 'Lorenzo');</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1804,7 +1854,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 28, 'Theo');</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1820,7 +1870,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 30, 'Gabriel');</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1836,7 +1886,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 31, 'Enzo');</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1852,7 +1902,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 32, 'Matheus');</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1868,7 +1918,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 34, 'Benjamin');</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1884,7 +1934,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 35, 'Nicolas');</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1900,7 +1950,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 36, 'Guilherme');</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1916,7 +1966,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 37, 'Rafael');</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1932,7 +1982,7 @@
         <v>INSERT INTO Vaquinha_Individual_Pessoa(id_vaquinha_individual, id_pessoa, resposta) VALUES (1, 38, 'Joaquim');</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1954,19 +2004,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1980,7 +2030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1995,7 +2045,7 @@
         <v>INSERT INTO Grupo_de_Pelada(id_grupo_de_pelada, nome, descricao, id_adm) VALUES (1, 'Girls','',4);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2010,7 +2060,7 @@
         <v>INSERT INTO Grupo_de_Pelada(id_grupo_de_pelada, nome, descricao, id_adm) VALUES (2, 'Boys','',22);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2025,7 +2075,7 @@
         <v>INSERT INTO Grupo_de_Pelada(id_grupo_de_pelada, nome, descricao, id_adm) VALUES (3, 'Mista','',11);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2040,7 +2090,7 @@
         <v>INSERT INTO Grupo_de_Pelada(id_grupo_de_pelada, nome, descricao, id_adm) VALUES (4, 'Cerveja','',26);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2055,7 +2105,7 @@
         <v>INSERT INTO Grupo_de_Pelada(id_grupo_de_pelada, nome, descricao, id_adm) VALUES (5, 'Vodka','',15);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2076,24 +2126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2151,7 +2201,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (5, 'Lugar5',8,'2019-06-10 22:42:59','2019-06-11 00:42:30',1);</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (12, 'Lugar12',4,'2019-04-17 03:12:18','2019-04-17 05:11:49',1);</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>26</v>
       </c>
@@ -2215,7 +2265,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (26, 'Lugar26',9,'2020-04-02 07:25:57','2020-04-02 09:25:29',1);</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>28</v>
       </c>
@@ -2247,7 +2297,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (28, 'Lugar28',3,'2019-08-31 02:42:33','2019-08-31 04:42:04',1);</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>29</v>
       </c>
@@ -2279,7 +2329,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (29, 'Lugar29',9,'2019-11-27 02:36:38','2019-11-27 04:36:09',1);</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -2311,7 +2361,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (15, 'Lugar15',4,'2018-09-16 15:23:38','2018-09-16 17:23:10',2);</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2343,7 +2393,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (22, 'Lugar22',3,'2019-11-13 13:55:06','2019-11-13 15:54:37',2);</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2375,7 +2425,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (11, 'Lugar11',8,'2019-04-27 20:13:45','2019-04-27 22:13:17',3);</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2407,7 +2457,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (13, 'Lugar13',13,'2020-05-20 21:48:59','2020-05-20 23:48:31',3);</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
@@ -2439,7 +2489,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (20, 'Lugar20',11,'2018-09-20 17:37:10','2018-09-20 19:36:42',3);</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>23</v>
       </c>
@@ -2471,7 +2521,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (23, 'Lugar23',14,'2018-11-28 02:29:20','2018-11-28 04:28:51',3);</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2502,7 +2552,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (2, 'Rua Roldão Ferreira Torres',7,'2019-08-07 10:05:20','2019-08-07 12:04:51',4);</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2534,7 +2584,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (6, 'Lugar6',11,'2020-04-15 18:53:13','2020-04-15 20:52:44',4);</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (9, 'Lugar9',7,'2019-09-30 20:37:21','2019-09-30 22:36:52',4);</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2598,7 +2648,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (14, 'Lugar14',6,'2019-10-02 03:34:53','2019-10-02 05:34:24',4);</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2630,7 +2680,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (17, 'Lugar17',4,'2019-01-10 16:24:00','2019-01-10 18:23:32',4);</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -2662,7 +2712,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (19, 'Lugar19',8,'2018-10-16 18:25:40','2018-10-16 20:25:11',4);</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2694,7 +2744,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (4, 'Lugar4',5,'2018-09-09 17:47:10','2018-09-09 19:46:41',5);</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2726,7 +2776,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (7, 'Lugar7',15,'2019-01-29 18:25:44','2019-01-29 20:25:15',5);</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2758,7 +2808,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (8, 'Lugar8',8,'2020-05-22 11:38:44','2020-05-22 13:38:15',5);</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2790,7 +2840,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (10, 'Lugar10',8,'2020-04-16 08:12:47','2020-04-16 10:12:19',5);</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2822,7 +2872,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (18, 'Lugar18',3,'2019-06-05 11:19:58','2019-06-05 13:19:30',5);</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2854,7 +2904,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (21, 'Lugar21',14,'2019-02-23 22:34:03','2019-02-24 00:33:34',5);</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2886,7 +2936,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (24, 'Lugar24',4,'2018-12-25 20:48:34','2018-12-25 22:48:05',5);</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2918,7 +2968,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (25, 'Lugar25',14,'2019-03-27 04:34:46','2019-03-27 06:34:17',5);</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2949,7 +2999,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (1, 'Rua da Conciliação',5,'2019-03-08 04:48:15','2019-03-08 06:47:47',6);</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2981,7 +3031,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (3, 'Lugar3',13,'2019-03-29 22:30:27','2019-03-30 00:29:58',6);</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
@@ -3013,7 +3063,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (16, 'Lugar16',11,'2019-02-24 12:53:38','2019-02-24 14:53:09',6);</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3045,7 +3095,7 @@
         <v>INSERT INTO Pelada(id_pelada, lugar, preco, inicio, fim, id_grupo_de_pelada) VALUES (27, 'Lugar27',13,'2019-10-10 02:32:29','2019-10-10 04:32:00',6);</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3087,19 +3137,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3107,7 +3157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3119,7 +3169,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 3);</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3131,7 +3181,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 4);</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3143,7 +3193,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 5);</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3155,7 +3205,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 6);</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3167,7 +3217,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 7);</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3179,7 +3229,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 8);</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3191,7 +3241,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 9);</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3203,7 +3253,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 10);</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3215,7 +3265,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 11);</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3227,7 +3277,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 12);</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3239,7 +3289,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 15);</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3251,7 +3301,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 16);</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3263,7 +3313,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 17);</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3275,7 +3325,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 18);</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3287,7 +3337,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 35);</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3299,7 +3349,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 36);</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3311,7 +3361,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (1, 39);</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3323,7 +3373,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 3);</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3335,7 +3385,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 6);</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3347,7 +3397,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 10);</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3359,7 +3409,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 13);</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3371,7 +3421,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 14);</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3383,7 +3433,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 16);</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3395,7 +3445,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 18);</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3407,7 +3457,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 21);</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3419,7 +3469,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 22);</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3431,7 +3481,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 23);</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 25);</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3455,7 +3505,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 26);</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3467,7 +3517,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 27);</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3479,7 +3529,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 28);</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 30);</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3503,7 +3553,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 31);</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3515,7 +3565,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 32);</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3527,7 +3577,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 34);</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3539,7 +3589,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 35);</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3551,7 +3601,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 36);</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3563,7 +3613,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 37);</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3575,7 +3625,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 38);</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3587,7 +3637,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (2, 39);</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3599,7 +3649,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 4);</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3611,7 +3661,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 8);</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3623,7 +3673,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 10);</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -3635,7 +3685,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 11);</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3647,7 +3697,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 12);</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3659,7 +3709,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 15);</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -3671,7 +3721,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 16);</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3683,7 +3733,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 17);</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3695,7 +3745,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 19);</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3707,7 +3757,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 21);</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3719,7 +3769,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 26);</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3731,7 +3781,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 27);</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3743,7 +3793,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 28);</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3755,7 +3805,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 31);</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3767,7 +3817,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 32);</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3779,7 +3829,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 34);</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3791,7 +3841,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 35);</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3803,7 +3853,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 37);</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3815,7 +3865,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 39);</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3827,7 +3877,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (3, 40);</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3839,7 +3889,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 3);</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3851,7 +3901,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 6);</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3863,7 +3913,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 12);</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3875,7 +3925,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 13);</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -3887,7 +3937,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 14);</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 26);</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4</v>
       </c>
@@ -3911,7 +3961,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 29);</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3923,7 +3973,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 34);</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -3935,7 +3985,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 33);</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -3947,7 +3997,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 36);</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -3959,7 +4009,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 38);</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -3971,7 +4021,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 39);</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4</v>
       </c>
@@ -3983,7 +4033,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (4, 40);</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
@@ -3995,7 +4045,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 5);</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
@@ -4007,7 +4057,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 7);</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -4019,7 +4069,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 8);</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
@@ -4031,7 +4081,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 9);</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
@@ -4043,7 +4093,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 11);</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
@@ -4055,7 +4105,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 15);</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
@@ -4067,7 +4117,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 17);</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5</v>
       </c>
@@ -4079,7 +4129,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 21);</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -4091,7 +4141,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 22);</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5</v>
       </c>
@@ -4103,7 +4153,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 25);</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5</v>
       </c>
@@ -4115,7 +4165,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 29);</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4127,7 +4177,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 30);</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -4139,7 +4189,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (5, 32);</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6</v>
       </c>
@@ -4151,7 +4201,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 1);</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6</v>
       </c>
@@ -4163,7 +4213,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 4);</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>6</v>
       </c>
@@ -4175,7 +4225,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 5);</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6</v>
       </c>
@@ -4187,7 +4237,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 7);</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6</v>
       </c>
@@ -4199,7 +4249,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 9);</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6</v>
       </c>
@@ -4211,7 +4261,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 13);</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6</v>
       </c>
@@ -4223,7 +4273,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 14);</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>6</v>
       </c>
@@ -4235,7 +4285,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 18);</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6</v>
       </c>
@@ -4247,7 +4297,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 19);</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -4259,7 +4309,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 22);</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6</v>
       </c>
@@ -4271,7 +4321,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 24);</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6</v>
       </c>
@@ -4283,7 +4333,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 25);</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6</v>
       </c>
@@ -4295,7 +4345,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 27);</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>6</v>
       </c>
@@ -4307,7 +4357,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 28);</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6</v>
       </c>
@@ -4319,7 +4369,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 30);</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6</v>
       </c>
@@ -4331,7 +4381,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 31);</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6</v>
       </c>
@@ -4343,7 +4393,7 @@
         <v>INSERT INTO Participa_grupo_pelada(id_grupo_de_pelada, id_pessoa) VALUES (6, 36);</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6</v>
       </c>
@@ -4364,21 +4414,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4404,7 +4454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -4434,7 +4484,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 5, 21, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -4464,7 +4514,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 5, 43, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4494,7 +4544,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 5, 10, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -4524,7 +4574,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (10, 5, 43, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -4554,7 +4604,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (11, 5, 29, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4584,7 +4634,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 12, 46, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4614,7 +4664,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (4, 12, 22, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4644,7 +4694,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 12, 36, 1, 1, 0, 2, 1);</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4674,7 +4724,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 12, 46, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4704,7 +4754,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 12, 27, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4734,7 +4784,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 12, 5, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -4764,7 +4814,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (16, 26, 28, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -4794,7 +4844,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (17, 26, 29, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -4824,7 +4874,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (18, 26, 10, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>35</v>
       </c>
@@ -4854,7 +4904,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (35, 26, 23, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4884,7 +4934,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (16, 28, 27, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4914,7 +4964,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (17, 28, 48, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4944,7 +4994,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (18, 28, 49, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>35</v>
       </c>
@@ -4974,7 +5024,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (35, 28, 1, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>36</v>
       </c>
@@ -5004,7 +5054,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (36, 28, 12, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>39</v>
       </c>
@@ -5034,7 +5084,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (39, 29, 11, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5064,7 +5114,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 29, 30, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5094,7 +5144,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (4, 29, 0, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5124,7 +5174,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 29, 21, 1, 1, 0, 2, 1);</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5154,7 +5204,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 29, 11, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5184,7 +5234,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 15, 1, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5214,7 +5264,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 15, 48, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -5244,7 +5294,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (10, 15, 1, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -5274,7 +5324,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 15, 38, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -5304,7 +5354,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (14, 15, 14, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>16</v>
       </c>
@@ -5334,7 +5384,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (16, 15, 32, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -5364,7 +5414,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (18, 22, 35, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>21</v>
       </c>
@@ -5394,7 +5444,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (21, 22, 9, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>22</v>
       </c>
@@ -5424,7 +5474,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (22, 22, 24, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -5454,7 +5504,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (4, 11, 27, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -5484,7 +5534,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 11, 26, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -5514,7 +5564,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (10, 11, 32, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
@@ -5544,7 +5594,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (11, 11, 3, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -5574,7 +5624,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (12, 11, 4, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>15</v>
       </c>
@@ -5604,7 +5654,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (15, 13, 49, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>16</v>
       </c>
@@ -5634,7 +5684,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (16, 13, 38, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>17</v>
       </c>
@@ -5664,7 +5714,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (17, 13, 47, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>19</v>
       </c>
@@ -5694,7 +5744,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (19, 13, 6, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>21</v>
       </c>
@@ -5724,7 +5774,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (21, 20, 18, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26</v>
       </c>
@@ -5754,7 +5804,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (26, 20, 16, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>27</v>
       </c>
@@ -5784,7 +5834,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (27, 20, 17, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>28</v>
       </c>
@@ -5814,7 +5864,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (28, 20, 31, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>31</v>
       </c>
@@ -5844,7 +5894,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (31, 23, 3, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>32</v>
       </c>
@@ -5874,7 +5924,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (32, 23, 26, 1, 1, 0, 3, 11);</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>34</v>
       </c>
@@ -5904,7 +5954,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (34, 23, 37, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>35</v>
       </c>
@@ -5934,7 +5984,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (35, 23, 43, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -5964,7 +6014,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 2, 18, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -5994,7 +6044,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 2, 47, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12</v>
       </c>
@@ -6024,7 +6074,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (12, 2, 34, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13</v>
       </c>
@@ -6054,7 +6104,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 2, 30, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -6084,7 +6134,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (14, 2, 9, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26</v>
       </c>
@@ -6114,7 +6164,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (26, 6, 7, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>29</v>
       </c>
@@ -6144,7 +6194,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (29, 6, 32, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>34</v>
       </c>
@@ -6174,7 +6224,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (34, 6, 23, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>33</v>
       </c>
@@ -6204,7 +6254,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (33, 6, 14, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>36</v>
       </c>
@@ -6234,7 +6284,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (36, 6, 38, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>38</v>
       </c>
@@ -6264,7 +6314,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (38, 9, 29, 1, 1, 0, 2, 1);</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>39</v>
       </c>
@@ -6294,7 +6344,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (39, 9, 14, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>40</v>
       </c>
@@ -6324,7 +6374,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (40, 9, 4, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -6354,7 +6404,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 9, 30, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -6384,7 +6434,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 9, 44, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6414,7 +6464,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (12, 9, 26, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13</v>
       </c>
@@ -6444,7 +6494,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 9, 21, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>14</v>
       </c>
@@ -6474,7 +6524,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (14, 14, 30, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>26</v>
       </c>
@@ -6504,7 +6554,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (26, 14, 43, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>29</v>
       </c>
@@ -6534,7 +6584,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (29, 14, 31, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>34</v>
       </c>
@@ -6564,7 +6614,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (34, 17, 7, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>33</v>
       </c>
@@ -6594,7 +6644,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (33, 17, 40, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>36</v>
       </c>
@@ -6624,7 +6674,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (36, 17, 2, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>38</v>
       </c>
@@ -6654,7 +6704,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (38, 17, 46, 1, 1, 0, 1, 1);</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>39</v>
       </c>
@@ -6684,7 +6734,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (39, 17, 22, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>40</v>
       </c>
@@ -6714,7 +6764,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (40, 19, 42, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6744,7 +6794,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (3, 19, 18, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6</v>
       </c>
@@ -6774,7 +6824,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (6, 19, 10, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12</v>
       </c>
@@ -6804,7 +6854,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (12, 19, 40, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13</v>
       </c>
@@ -6834,7 +6884,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 19, 5, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5</v>
       </c>
@@ -6864,7 +6914,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 4, 16, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>7</v>
       </c>
@@ -6894,7 +6944,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 4, 7, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8</v>
       </c>
@@ -6924,7 +6974,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 4, 47, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -6954,7 +7004,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 4, 36, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>11</v>
       </c>
@@ -6984,7 +7034,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (11, 7, 45, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -7014,7 +7064,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (15, 7, 3, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>17</v>
       </c>
@@ -7044,7 +7094,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (17, 7, 7, 1, 1, 0, 0, 1);</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>21</v>
       </c>
@@ -7074,7 +7124,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (21, 7, 7, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>22</v>
       </c>
@@ -7104,7 +7154,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (22, 8, 36, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>25</v>
       </c>
@@ -7134,7 +7184,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (25, 8, 29, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>29</v>
       </c>
@@ -7164,7 +7214,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (29, 8, 8, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>30</v>
       </c>
@@ -7194,7 +7244,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (30, 8, 38, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>32</v>
       </c>
@@ -7224,7 +7274,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (32, 10, 19, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7254,7 +7304,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 10, 39, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>7</v>
       </c>
@@ -7284,7 +7334,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 10, 13, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>8</v>
       </c>
@@ -7314,7 +7364,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 10, 13, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9</v>
       </c>
@@ -7344,7 +7394,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 18, 28, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>11</v>
       </c>
@@ -7374,7 +7424,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (11, 18, 38, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>15</v>
       </c>
@@ -7404,7 +7454,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (15, 18, 28, 1, 1, 0, 3, 1);</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>17</v>
       </c>
@@ -7434,7 +7484,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (17, 18, 17, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>21</v>
       </c>
@@ -7464,7 +7514,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (21, 21, 22, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>22</v>
       </c>
@@ -7494,7 +7544,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (22, 21, 22, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>25</v>
       </c>
@@ -7524,7 +7574,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (25, 21, 30, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>29</v>
       </c>
@@ -7554,7 +7604,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (29, 21, 1, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>30</v>
       </c>
@@ -7584,7 +7634,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (30, 24, 29, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>32</v>
       </c>
@@ -7614,7 +7664,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (32, 24, 36, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -7644,7 +7694,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 24, 13, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7</v>
       </c>
@@ -7674,7 +7724,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 24, 5, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8</v>
       </c>
@@ -7704,7 +7754,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (8, 25, 4, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9</v>
       </c>
@@ -7734,7 +7784,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 25, 19, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11</v>
       </c>
@@ -7764,7 +7814,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (11, 25, 23, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>15</v>
       </c>
@@ -7794,7 +7844,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (15, 25, 33, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -7824,7 +7874,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (1, 1, 43, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4</v>
       </c>
@@ -7854,7 +7904,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (4, 1, 16, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -7884,7 +7934,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 1, 10, 1, 1, 0, 3, 1);</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>7</v>
       </c>
@@ -7914,7 +7964,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 1, 37, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>9</v>
       </c>
@@ -7944,7 +7994,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 1, 3, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>13</v>
       </c>
@@ -7974,7 +8024,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 3, 30, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -8004,7 +8054,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (14, 3, 45, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>18</v>
       </c>
@@ -8034,7 +8084,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (18, 3, 42, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>19</v>
       </c>
@@ -8064,7 +8114,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (19, 16, 25, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>22</v>
       </c>
@@ -8094,7 +8144,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (22, 16, 38, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>24</v>
       </c>
@@ -8124,7 +8174,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (24, 16, 27, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>25</v>
       </c>
@@ -8154,7 +8204,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (25, 16, 4, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>27</v>
       </c>
@@ -8184,7 +8234,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (27, 16, 22, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>28</v>
       </c>
@@ -8214,7 +8264,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (28, 16, 3, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>30</v>
       </c>
@@ -8244,7 +8294,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (30, 16, 16, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>31</v>
       </c>
@@ -8274,7 +8324,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (31, 27, 36, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>36</v>
       </c>
@@ -8304,7 +8354,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (36, 27, 25, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>37</v>
       </c>
@@ -8334,7 +8384,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (37, 27, 0, 1, 1, 0, 0, 0);</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -8364,7 +8414,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (1, 27, 23, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4</v>
       </c>
@@ -8394,7 +8444,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (4, 27, 8, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
@@ -8424,7 +8474,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (5, 27, 22, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>7</v>
       </c>
@@ -8454,7 +8504,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (7, 27, 43, 1, 1, 0, 0, 1);</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>9</v>
       </c>
@@ -8484,7 +8534,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (9, 30, 23, 1, 1, 0, 3, 0);</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>13</v>
       </c>
@@ -8514,7 +8564,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (13, 30, 14, 1, 1, 0, 1, 0);</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -8544,7 +8594,7 @@
         <v>INSERT INTO Jogador(id_pessoa, id_pelada, Pontos, Partida, Titular, Substituido, G, GC) VALUES (14, 30, 34, 1, 1, 0, 2, 0);</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>18</v>
       </c>
@@ -8580,20 +8630,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -8607,7 +8657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8628,7 +8678,7 @@
         <v>INSERT INTO Vaquinha(id_vaquinha, motivo, id_grupo_de_pelada,prazo) VALUES (1, 'camisa', 2, '2019-07-11 00:00:00');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8649,7 +8699,7 @@
         <v>INSERT INTO Vaquinha(id_vaquinha, motivo, id_grupo_de_pelada,prazo) VALUES (2, 'churrasco', 3, '2019-06-10 00:00:00');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8670,7 +8720,7 @@
         <v>INSERT INTO Vaquinha(id_vaquinha, motivo, id_grupo_de_pelada,prazo) VALUES (3, 'aluguel campo', 4, '2019-07-03 00:00:00');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8691,7 +8741,7 @@
         <v>INSERT INTO Vaquinha(id_vaquinha, motivo, id_grupo_de_pelada,prazo) VALUES (4, 'churrasco', 5, '2019-10-02 00:00:00');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8718,19 +8768,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -8738,7 +8788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8750,7 +8800,7 @@
         <v>INSERT INTO Vaquinha_Coletiva(id_vaquinha_coletiva, valor_total) VALUES (2, 240);</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8762,7 +8812,7 @@
         <v>INSERT INTO Vaquinha_Coletiva(id_vaquinha_coletiva, valor_total) VALUES (3, 100);</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8780,23 +8830,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F32" sqref="F2:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -8810,7 +8860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8831,7 +8881,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 4, 20, '2018-11-28 02:29:00');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8848,11 +8898,11 @@
         <v>145</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F33" si="0">"INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES ("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", '"&amp;E3&amp;"');"</f>
+        <f t="shared" ref="F3:F32" si="0">"INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES ("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", '"&amp;E3&amp;"');"</f>
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 8, 20, '2019-08-07 10:05:00');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8873,7 +8923,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 10, 20, '2020-04-15 18:53:00');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8881,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <v>43738.859027777777</v>
@@ -8891,10 +8941,10 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 11, 20, '2019-09-30 20:37:00');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 11, 0, '2019-09-30 20:37:00');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8915,7 +8965,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 12, 20, '2019-10-02 03:34:00');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8936,7 +8986,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 15, 20, '2019-01-10 16:24:00');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8957,7 +9007,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 16, 20, '2018-10-16 18:25:00');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8978,7 +9028,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 17, 20, '2018-09-09 17:47:00');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8999,7 +9049,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 19, 20, '2019-01-29 18:25:00');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9007,7 +9057,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>43973.484722222223</v>
@@ -9017,10 +9067,10 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 21, 20, '2020-05-22 11:38:00');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 21, 0, '2020-05-22 11:38:00');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9041,7 +9091,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 26, 20, '2020-04-16 08:12:00');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9062,7 +9112,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (2, 27, 20, '2019-01-10 16:24:00');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9083,7 +9133,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 13, 10, '2019-06-03 00:00:00');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9104,7 +9154,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 14, 10, '2019-06-04 00:00:00');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9112,7 +9162,7 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>43621</v>
@@ -9122,10 +9172,10 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 26, 10, '2019-06-05 00:00:00');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 26, 0, '2019-06-05 00:00:00');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9146,7 +9196,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 29, 10, '2019-06-06 00:00:00');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9167,7 +9217,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 34, 10, '2019-06-07 00:00:00');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9188,7 +9238,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 33, 10, '2019-06-08 00:00:00');</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -9196,7 +9246,7 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>43625</v>
@@ -9206,10 +9256,10 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 36, 10, '2019-06-09 00:00:00');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 36, 0, '2019-06-09 00:00:00');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9230,7 +9280,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 38, 10, '2019-06-10 00:00:00');</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -9251,7 +9301,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 39, 10, '2019-06-11 00:00:00');</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9272,7 +9322,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (3, 40, 10, '2019-06-12 00:00:00');</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -9293,7 +9343,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 5, 30, '2019-03-05 00:00:00');</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -9314,7 +9364,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 7, 30, '2019-03-05 00:00:00');</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -9335,7 +9385,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 8, 30, '2019-03-05 00:00:00');</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9356,7 +9406,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 9, 30, '2019-03-05 00:00:00');</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -9377,7 +9427,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 11, 30, '2019-03-05 00:00:00');</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -9385,7 +9435,7 @@
         <v>15</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>43529</v>
@@ -9395,10 +9445,10 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 15, 30, '2019-03-05 00:00:00');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 15, 0, '2019-03-05 00:00:00');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -9419,7 +9469,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 17, 30, '2019-03-06 00:00:00');</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -9440,7 +9490,7 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 21, 30, '2019-03-06 00:00:00');</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -9461,26 +9511,9 @@
         <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 22, 30, '2019-03-06 00:00:00');</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33" s="6">
-        <v>43530</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Vaquinha_Coletiva_Pessoa(id_vaquinha_coletiva, id_pessoa, valor_pago, data) VALUES (4, 25, 30, '2019-03-06 00:00:00');</v>
-      </c>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9488,19 +9521,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -9511,7 +9544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
